--- a/data/trans_camb/P16A10-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.9636892632319149</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5085510928214341</v>
+        <v>0.5085510928214333</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-3.396536402916359</v>
@@ -655,7 +655,7 @@
         <v>0.944938005158686</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-1.470116165624183</v>
+        <v>-1.470116165624184</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.9251449425086711</v>
@@ -664,7 +664,7 @@
         <v>0.9213327387290908</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.4698839865857833</v>
+        <v>-0.469883986585784</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.305231279987252</v>
+        <v>-1.841885112923454</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.011894496436521</v>
+        <v>-2.037319574576372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.25723738325937</v>
+        <v>-2.30765048164098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.248503471975162</v>
+        <v>-6.756589026208282</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.653248436452931</v>
+        <v>-2.671256466413936</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.529815523336238</v>
+        <v>-4.778379573358035</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.988250960236769</v>
+        <v>-2.965289304941866</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.291181990294283</v>
+        <v>-1.333704642038156</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.265210450469548</v>
+        <v>-2.447313390441795</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.1753942799706</v>
+        <v>3.836233130431515</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.243420964381567</v>
+        <v>4.280393741862251</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.984061695014397</v>
+        <v>3.291198797875829</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.220710755325795</v>
+        <v>-1.231385442738107</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.330595862871673</v>
+        <v>4.419829129485161</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7392162988510851</v>
+        <v>0.662721550888988</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.167792527332226</v>
+        <v>1.198301945204669</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.30910177673452</v>
+        <v>3.343716011553389</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.270996861920808</v>
+        <v>1.495886990405672</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2059681438500604</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1086920116657388</v>
+        <v>0.1086920116657387</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.8382260033621188</v>
@@ -760,7 +760,7 @@
         <v>0.2331997993040923</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3628077110939026</v>
+        <v>-0.3628077110939028</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2087168381099288</v>
@@ -769,7 +769,7 @@
         <v>0.2078567878815321</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1060079296253124</v>
+        <v>-0.1060079296253126</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3915966497193753</v>
+        <v>-0.3318437845149327</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.355312624930796</v>
+        <v>-0.347528534120313</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3648848753866442</v>
+        <v>-0.371049426938331</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4638947220080893</v>
+        <v>-0.468909520815005</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7174173646450638</v>
+        <v>-0.7149337306169651</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5480653891009076</v>
+        <v>-0.5406117866009149</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2417508631715579</v>
+        <v>-0.2565563570670233</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4032342917257684</v>
+        <v>-0.419157127360784</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.196088238656348</v>
+        <v>1.116243609824185</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.277915768490783</v>
+        <v>1.24900730955435</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9518325026143971</v>
+        <v>1.024427611117079</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.3244749773814337</v>
+        <v>-0.09048994321491216</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.968645854846348</v>
+        <v>1.915368454325569</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3913521225174538</v>
+        <v>0.3224009451462622</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3738324522731579</v>
+        <v>0.3882194405317053</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9749622307221001</v>
+        <v>0.980009078063498</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3870743904083664</v>
+        <v>0.4728355424170897</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.652728631165797</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.7317863298207945</v>
+        <v>0.7317863298207952</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.676385249772169</v>
+        <v>-2.412403128734425</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.651702279599897</v>
+        <v>-1.331952132998677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.323800458281172</v>
+        <v>-1.334458191201844</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.943889332146445</v>
+        <v>-2.948393927454155</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.390094974860258</v>
+        <v>-2.22835733462385</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.288423735148049</v>
+        <v>-2.007308767699942</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.962096965667377</v>
+        <v>-1.832079944657595</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.224618523193819</v>
+        <v>-1.198216445493246</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.9736707505927115</v>
+        <v>-0.8986919643687674</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.825395223416311</v>
+        <v>3.536489890178622</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.955394933361798</v>
+        <v>4.151825841833212</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.652763177873333</v>
+        <v>3.951592862294608</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8754506417122838</v>
+        <v>0.7419998741274008</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.340356917997925</v>
+        <v>2.330323840460985</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.337089391291253</v>
+        <v>1.407688365681216</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.549865440239958</v>
+        <v>1.671658594357769</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.472123756208384</v>
+        <v>2.60283704657434</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.230378987875035</v>
+        <v>2.213750075509512</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.2486272174290816</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2787406438890682</v>
+        <v>0.2787406438890684</v>
       </c>
     </row>
     <row r="14">
@@ -994,29 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.576952828792911</v>
+        <v>-0.5402261068984298</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3726136735055968</v>
+        <v>-0.2906042602108888</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2929007696992324</v>
-      </c>
-      <c r="F14" s="6" t="inlineStr"/>
+        <v>-0.2688952489990845</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8568613501936004</v>
+        <v>-0.8287097790011909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6883179468069408</v>
+        <v>-0.690128169491437</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5640352729634264</v>
+        <v>-0.549681594694204</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3791551547639006</v>
+        <v>-0.3709336638483642</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2888773941343515</v>
+        <v>-0.2814436575152722</v>
       </c>
     </row>
     <row r="15">
@@ -1027,29 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.296424649528978</v>
+        <v>1.558610972604569</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.740615856462017</v>
+        <v>2.020491317751529</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.802734773529252</v>
-      </c>
-      <c r="F15" s="6" t="inlineStr"/>
+        <v>2.042343720899311</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.814761678921489</v>
+      </c>
       <c r="G15" s="6" t="n">
-        <v>2.88605029274874</v>
+        <v>3.680389015522137</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.384923293631625</v>
+        <v>2.789449547574366</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8605560979270904</v>
+        <v>1.078788359811669</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.358357904832312</v>
+        <v>1.482144107052475</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.268191544994429</v>
+        <v>1.264816559004836</v>
       </c>
     </row>
     <row r="16">
@@ -1070,7 +1074,7 @@
         <v>0.8724092135051924</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.030739003213494</v>
+        <v>1.030739003213493</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.231023737731717</v>
@@ -1088,7 +1092,7 @@
         <v>1.047806717416837</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.581235844184513</v>
+        <v>1.581235844184514</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.256378013837549</v>
+        <v>-2.929340663820099</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.259456667518135</v>
+        <v>-2.099215613540871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.702159206449849</v>
+        <v>-1.822932482759429</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.719602541684341</v>
+        <v>-3.495896303372502</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.403281276260812</v>
+        <v>-2.766872977032725</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.7803974730456831</v>
+        <v>-1.071333186835493</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.654513852734329</v>
+        <v>-2.498810902755446</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.408389623131988</v>
+        <v>-1.539351712811261</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.729813293047168</v>
+        <v>-0.7221416611893414</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.340310706906859</v>
+        <v>2.64515628407499</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.757625033942075</v>
+        <v>4.193322581626232</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.255174011576939</v>
+        <v>4.231639614929362</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.51763404696071</v>
+        <v>3.959189953485479</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.997704007993476</v>
+        <v>6.310904382138315</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.400808072087775</v>
+        <v>8.627958749714763</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.981923035948451</v>
+        <v>1.976320973012332</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.849881069203924</v>
+        <v>3.707400767330071</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.376004632683097</v>
+        <v>4.111511496773772</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1179,7 @@
         <v>0.1416244766786424</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1673272928146441</v>
+        <v>0.1673272928146438</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.06507969789572848</v>
@@ -1193,7 +1197,7 @@
         <v>0.1890204001884027</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2852490130974232</v>
+        <v>0.2852490130974235</v>
       </c>
     </row>
     <row r="20">
@@ -1204,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4118073164286732</v>
+        <v>-0.3901395620835371</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3102326520393102</v>
+        <v>-0.2785917976181641</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2469920479837528</v>
+        <v>-0.2458072819785744</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6697069444723968</v>
+        <v>-0.6538343476400276</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5286627812195508</v>
+        <v>-0.6065529789675862</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2697291753830805</v>
+        <v>-0.3157884728483695</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3813270708746531</v>
+        <v>-0.3750535043960299</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2277965251742531</v>
+        <v>-0.2423875418562098</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.113104332434726</v>
+        <v>-0.1163232538235178</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4832900931869067</v>
+        <v>0.5393064287355654</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7602680751276504</v>
+        <v>0.8886781239495494</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8801814578016144</v>
+        <v>0.9465730172261297</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.308337915480636</v>
+        <v>2.667159912593744</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.039107334688327</v>
+        <v>3.881481554772424</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.190576322703491</v>
+        <v>4.893916588410765</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4696407570365212</v>
+        <v>0.4607082911651387</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.838305452480624</v>
+        <v>0.836084653938029</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9848129879236284</v>
+        <v>0.8979638265743153</v>
       </c>
     </row>
     <row r="22">
@@ -1293,7 +1297,7 @@
         <v>-0.4702080963080286</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.4969018220897452</v>
+        <v>-0.4969018220897459</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.424793311593033</v>
@@ -1302,7 +1306,7 @@
         <v>-0.4608119097583151</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.5782937081343059</v>
+        <v>-0.5782937081343031</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.537320709161384</v>
+        <v>-3.362152328641472</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.085369098860932</v>
+        <v>-2.305790880674132</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.410977806617653</v>
+        <v>-2.151127112114903</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.169511879103589</v>
+        <v>-3.194158444837126</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.489489109902678</v>
+        <v>-2.380467718752357</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.392988817646185</v>
+        <v>-2.307380776353261</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.817688194868932</v>
+        <v>-2.822066943315175</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.822350357551298</v>
+        <v>-1.919668428349149</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.984782934627218</v>
+        <v>-1.982335077057708</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4720569180592707</v>
+        <v>0.6063341224559752</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.96024637160792</v>
+        <v>1.917303086473365</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.563609425517984</v>
+        <v>1.814702213145971</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6766409408067036</v>
+        <v>0.779173130586332</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.548259626907944</v>
+        <v>1.457611372797896</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.074381631009611</v>
+        <v>1.232619816888997</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1745565258861506</v>
+        <v>-0.00860825253263472</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.112582108776611</v>
+        <v>1.18105267042043</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7722740219688347</v>
+        <v>0.791451194208301</v>
       </c>
     </row>
     <row r="25">
@@ -1398,7 +1402,7 @@
         <v>-0.1153474366600835</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1218957136208679</v>
+        <v>-0.1218957136208681</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2344742326418103</v>
@@ -1407,7 +1411,7 @@
         <v>-0.07583452143804714</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.09516817095721226</v>
+        <v>-0.09516817095721181</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4391793220697455</v>
+        <v>-0.4051005785188104</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2574209109166934</v>
+        <v>-0.2818609083510982</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2944553586748457</v>
+        <v>-0.266526593136883</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6154657778608357</v>
+        <v>-0.6151198217202867</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4786732211632261</v>
+        <v>-0.4664196138205985</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.457323086874402</v>
+        <v>-0.4365299169158811</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4143958918010139</v>
+        <v>-0.4161416341601295</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2699267971440996</v>
+        <v>-0.2729739545184129</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2952580231887534</v>
+        <v>-0.2841787616660005</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.07428213817827292</v>
+        <v>0.1073191573746766</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3184932720502038</v>
+        <v>0.2939773760667846</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.260696005995282</v>
+        <v>0.2946414789274862</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2350666535041546</v>
+        <v>0.3020338154785533</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5248740272108837</v>
+        <v>0.4787205051863188</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3517155283058981</v>
+        <v>0.4543029026936425</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03718919951581508</v>
+        <v>0.001765640124644604</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2129088949901426</v>
+        <v>0.2232521984878423</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.142329201015647</v>
+        <v>0.1526942602892493</v>
       </c>
     </row>
     <row r="28">
@@ -1498,7 +1502,7 @@
         <v>1.598445383625187</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.02645064459671151</v>
+        <v>0.02645064459671082</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.955447833351162</v>
@@ -1516,7 +1520,7 @@
         <v>0.2549299942619953</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.6958177730030699</v>
+        <v>0.6958177730030685</v>
       </c>
     </row>
     <row r="29">
@@ -1527,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.870042748876825</v>
+        <v>-2.848488995559657</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.759301372640014</v>
+        <v>-1.610920163526116</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.150330074474679</v>
+        <v>-3.015898600223309</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.082499627111279</v>
+        <v>-0.8753716106628449</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.336069427128292</v>
+        <v>-3.526980826460789</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.428967926142882</v>
+        <v>-1.353102367408265</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.7528184335877111</v>
+        <v>-0.8096797546847657</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.88010654218763</v>
+        <v>-1.865584136396957</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.267180204874458</v>
+        <v>-1.198356339629977</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.421743666892047</v>
+        <v>3.619968878558697</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.3139105762524</v>
+        <v>4.299054275715443</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.537140886387751</v>
+        <v>2.943301370801096</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.632781834344893</v>
+        <v>4.836551290019969</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.288732114364608</v>
+        <v>1.682473729226764</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.503827531187894</v>
+        <v>3.667778888786292</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.428986328962427</v>
+        <v>3.374645493177326</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.023770658614613</v>
+        <v>2.304229573291167</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.520009215181136</v>
+        <v>2.489946818286393</v>
       </c>
     </row>
     <row r="31">
@@ -1603,7 +1607,7 @@
         <v>0.3005669535844114</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.004973701165032585</v>
+        <v>0.004973701165032455</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3090936590792551</v>
@@ -1621,7 +1625,7 @@
         <v>0.04289875277075705</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1170898493289121</v>
+        <v>0.1170898493289119</v>
       </c>
     </row>
     <row r="32">
@@ -1632,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4109004278003609</v>
+        <v>-0.3981846494353359</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2496896746116602</v>
+        <v>-0.2196028034115778</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4236126887247745</v>
+        <v>-0.4016379350795108</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1387676367702461</v>
+        <v>-0.1259791705354243</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4391209423569705</v>
+        <v>-0.4544140228446135</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1913750818960784</v>
+        <v>-0.1702728155143273</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1105255196461736</v>
+        <v>-0.1122697758504364</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2644012262895773</v>
+        <v>-0.2637883962662707</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1737627740254778</v>
+        <v>-0.1617271515810745</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9594889747598784</v>
+        <v>1.021180124796399</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.203153739921231</v>
+        <v>1.21431210940555</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7254137972126037</v>
+        <v>0.8559710045514919</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9750104944697005</v>
+        <v>1.050462540497788</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4654723359984655</v>
+        <v>0.342792556729743</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7428994569933206</v>
+        <v>0.7783614237369224</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7427391101794176</v>
+        <v>0.699949734212823</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4083770788565753</v>
+        <v>0.4933935802203775</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5580218618647631</v>
+        <v>0.5263394690646738</v>
       </c>
     </row>
     <row r="34">
@@ -1721,7 +1725,7 @@
         <v>0.9670389204225569</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.474441913095934</v>
+        <v>1.474441913095932</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.3096052766646859</v>
@@ -1730,7 +1734,7 @@
         <v>0.5905062406170537</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.001471982149819</v>
+        <v>1.001471982149816</v>
       </c>
     </row>
     <row r="35">
@@ -1741,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.115685410260883</v>
+        <v>0.1534818894507891</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.383666846171737</v>
+        <v>-1.56370322710046</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.8253831101049101</v>
+        <v>-0.6267085427917943</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.814468149891274</v>
+        <v>-2.787497856641034</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.434627652980457</v>
+        <v>-1.121556821846204</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.6502990543007844</v>
+        <v>-0.7425924416153226</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.009033819163525</v>
+        <v>-2.003552925673641</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.508568216989401</v>
+        <v>-1.272739976967871</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.7924578026862358</v>
+        <v>-0.8251092507616588</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.821281154072873</v>
+        <v>5.159442426059716</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.9138298446576675</v>
+        <v>0.941089698090165</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.119297661893072</v>
+        <v>1.270922594993357</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.213777130250464</v>
+        <v>3.265679660004758</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.557182225876959</v>
+        <v>3.540075987478432</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.627990057643372</v>
+        <v>1.569758437397254</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.302698221288605</v>
+        <v>2.450954117461897</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.672115090326014</v>
+        <v>2.749053460319361</v>
       </c>
     </row>
     <row r="37">
@@ -1826,7 +1830,7 @@
         <v>0.1359135324188715</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2072270355651682</v>
+        <v>0.207227035565168</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.05341122567982844</v>
@@ -1835,7 +1839,7 @@
         <v>0.1018705573196776</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1727678760092987</v>
+        <v>0.1727678760092983</v>
       </c>
     </row>
     <row r="38">
@@ -1849,22 +1853,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.3460720627102841</v>
+        <v>-0.3387901928411364</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.181957144726596</v>
+        <v>-0.1461741878096717</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.07956962921297998</v>
+        <v>-0.09965774934348282</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3078810950183544</v>
+        <v>-0.3101040786211162</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2245325304331149</v>
+        <v>-0.1938423267748344</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1119274115748219</v>
+        <v>-0.1218967950588564</v>
       </c>
     </row>
     <row r="39">
@@ -1878,22 +1882,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.173457006720477</v>
+        <v>0.2236793364062125</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5083736836877408</v>
+        <v>0.5345187265573028</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5660171213268317</v>
+        <v>0.586507548375986</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.339636932104453</v>
+        <v>0.3154941819292693</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4578654659189016</v>
+        <v>0.5155128338688768</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5493817433896203</v>
+        <v>0.5441950975866914</v>
       </c>
     </row>
     <row r="40">
@@ -1914,7 +1918,7 @@
         <v>0.5751182290047236</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.2724801949629416</v>
+        <v>0.272480194962943</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-0.514383546863445</v>
@@ -1923,7 +1927,7 @@
         <v>0.1107319670938876</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.16013746036369</v>
+        <v>0.1601374603636893</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.3300583327150698</v>
@@ -1943,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.250053202860961</v>
+        <v>-1.281072470781058</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.5577553145603901</v>
+        <v>-0.5330545144414124</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.7339138750358771</v>
+        <v>-0.7561616629531807</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.629555706340628</v>
+        <v>-1.684588919701494</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.02758692820586</v>
+        <v>-1.038291862723597</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.7033163084825684</v>
+        <v>-0.953164735318349</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.137013849952946</v>
+        <v>-1.121786807993272</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.4801687169215895</v>
+        <v>-0.4552056587720776</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.4836314296793279</v>
+        <v>-0.5011250896445377</v>
       </c>
     </row>
     <row r="42">
@@ -1978,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.078434891260821</v>
+        <v>0.9300844976480316</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.564545768813178</v>
+        <v>1.639356130120012</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.315071300644467</v>
+        <v>1.340697936157753</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.4488696972726683</v>
+        <v>0.5415206961327274</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.317737700400825</v>
+        <v>1.236605689422781</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.096535268399019</v>
+        <v>1.07729066364639</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.3837205812954903</v>
+        <v>0.4080478372825481</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.095603576801285</v>
+        <v>1.088612843666407</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.9222955010756018</v>
+        <v>0.889716484408912</v>
       </c>
     </row>
     <row r="43">
@@ -2019,7 +2023,7 @@
         <v>0.1060398147184307</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.05023966887350199</v>
+        <v>0.05023966887350224</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.09710595197118597</v>
@@ -2028,7 +2032,7 @@
         <v>0.02090411550653381</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03023094465148662</v>
+        <v>0.03023094465148649</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.06158568343739561</v>
@@ -2048,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2086378261703686</v>
+        <v>-0.2134169924951156</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.09341476182586708</v>
+        <v>-0.08707142174745157</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1245424680641814</v>
+        <v>-0.1291172071114172</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2715911886245105</v>
+        <v>-0.2854748509976373</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.174370325650722</v>
+        <v>-0.1770331189959456</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1211740119876544</v>
+        <v>-0.153060927491759</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1987171934282255</v>
+        <v>-0.1987572055747182</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.08325120890064017</v>
+        <v>-0.0784493769664302</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.08372616187488595</v>
+        <v>-0.0865135082988915</v>
       </c>
     </row>
     <row r="45">
@@ -2083,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2182196411683249</v>
+        <v>0.189591445749693</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3185099808852166</v>
+        <v>0.3321187179900251</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2669848752402418</v>
+        <v>0.2740492292373065</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.09357227538459417</v>
+        <v>0.1190600824132531</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.272003374430777</v>
+        <v>0.2575677139602176</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2332955210852885</v>
+        <v>0.2311143310562813</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.07546685666506416</v>
+        <v>0.08153105957046235</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2175382486664366</v>
+        <v>0.2217977606259555</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1851714536047536</v>
+        <v>0.1788439971891581</v>
       </c>
     </row>
     <row r="46">
